--- a/src/excel/AntigenSupportingData- JE-508.xlsx
+++ b/src/excel/AntigenSupportingData- JE-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B5F534-45B3-4A2E-9285-37CF066A1FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03B04C-B98F-42CE-8363-C38C50127663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,12 +344,6 @@
     <t>Contraindication End Age (less than)</t>
   </si>
   <si>
-    <t>≥2 mo-4 d</t>
-  </si>
-  <si>
-    <t>≥2 mo</t>
-  </si>
-  <si>
     <t>JE-VAX (JPN)</t>
   </si>
   <si>
@@ -683,6 +677,12 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>≥2 mos</t>
+  </si>
+  <si>
+    <t>≥2 mos - 4 days</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2346,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
@@ -2372,7 +2372,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
@@ -2396,7 +2396,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -2422,7 +2422,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
@@ -2448,7 +2448,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="76"/>
       <c r="D11" s="76"/>
@@ -2488,7 +2488,7 @@
         <v>46</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="135"/>
       <c r="D18" s="135"/>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="135"/>
       <c r="D19" s="135"/>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" s="135"/>
       <c r="D20" s="135"/>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" s="135"/>
       <c r="D21" s="135"/>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22" s="135"/>
       <c r="D22" s="135"/>
@@ -2628,23 +2628,23 @@
         <v>1</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E26" s="116" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F26" s="117"/>
       <c r="G26" s="116" t="s">
         <v>82</v>
       </c>
       <c r="H26" s="118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I26" s="58"/>
     </row>
@@ -2656,13 +2656,13 @@
         <v>88</v>
       </c>
       <c r="C27" s="119" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="D27" s="119" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="E27" s="118" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="117"/>
       <c r="G27" s="117" t="s">
@@ -2679,10 +2679,10 @@
         <v>87</v>
       </c>
       <c r="C28" s="116" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="116"/>
       <c r="F28" s="116"/>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B30" s="59" t="s">
         <v>86</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="32" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
@@ -2772,7 +2772,7 @@
         <v>4.59</v>
       </c>
       <c r="C1" s="155" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>10</v>
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2851,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>180</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2905,10 +2905,10 @@
         <v>53</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2925,10 +2925,10 @@
         <v>53</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>53</v>
@@ -2948,7 +2948,7 @@
         <v>92</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2987,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="138" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="138" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3035,16 +3035,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D21" s="138" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="138" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>70</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3107,10 +3107,10 @@
         <v>68</v>
       </c>
       <c r="E26" s="132" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3133,33 +3133,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="D1" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="E1" s="140" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="140" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="143" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E2" s="144" t="s">
         <v>10</v>
@@ -3211,13 +3211,13 @@
         <v>63</v>
       </c>
       <c r="B4" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="69" t="s">
         <v>166</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="67" t="s">
         <v>76</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="81" t="s">
         <v>78</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="81" t="s">
         <v>94</v>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="66" t="s">
         <v>10</v>
@@ -3449,7 +3449,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="71"/>
       <c r="I4" s="92"/>
@@ -3459,7 +3459,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I5" s="92"/>
     </row>
@@ -3468,7 +3468,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I6" s="92"/>
     </row>
@@ -3477,7 +3477,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I7" s="92"/>
     </row>
@@ -3486,43 +3486,43 @@
         <v>85</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="71"/>
       <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="71"/>
       <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="71"/>
       <c r="I11" s="92"/>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="83" t="s">
         <v>10</v>
@@ -3564,13 +3564,13 @@
         <v>15</v>
       </c>
       <c r="D15" s="120" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G15" s="94" t="s">
         <v>16</v>
@@ -3594,7 +3594,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="63">
         <v>1</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="147" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="148" t="s">
         <v>75</v>
@@ -3635,13 +3635,13 @@
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D18" s="149" t="s">
         <v>92</v>
@@ -3655,13 +3655,13 @@
     </row>
     <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="149" t="s">
         <v>92</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="149" t="s">
         <v>92</v>
@@ -3731,10 +3731,10 @@
         <v>24</v>
       </c>
       <c r="G23" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H23" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I23" s="92"/>
     </row>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>59</v>
@@ -3776,10 +3776,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E25" s="95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="94" t="s">
         <v>27</v>
@@ -3794,18 +3794,18 @@
         <v>30</v>
       </c>
       <c r="J25" s="87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K25" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L25" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="105" t="s">
         <v>10</v>
@@ -3855,10 +3855,10 @@
         <v>27</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F27" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="41"/>
@@ -3922,7 +3922,7 @@
         <v>92</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="66" t="s">
         <v>10</v>
@@ -3943,7 +3943,7 @@
         <v>88</v>
       </c>
       <c r="C31" s="103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="66" t="s">
         <v>10</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="123" t="s">
         <v>2</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B35" s="129" t="s">
         <v>10</v>
@@ -4042,34 +4042,34 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="88" t="s">
+      <c r="E36" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="F36" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="88" t="s">
+      <c r="I36" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="88" t="s">
+      <c r="J36" s="88" t="s">
         <v>109</v>
-      </c>
-      <c r="I36" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" s="88" t="s">
-        <v>111</v>
       </c>
       <c r="K36" s="88" t="s">
         <v>38</v>
@@ -4081,19 +4081,19 @@
         <v>65</v>
       </c>
       <c r="N36" s="88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O36" s="88" t="s">
         <v>25</v>
       </c>
       <c r="P36" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q36" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="R36" s="88" t="s">
         <v>112</v>
-      </c>
-      <c r="Q36" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="R36" s="88" t="s">
-        <v>114</v>
       </c>
       <c r="S36" s="88" t="s">
         <v>69</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B37" s="83" t="s">
         <v>10</v>
@@ -4257,10 +4257,10 @@
         <v>24</v>
       </c>
       <c r="G44" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H44" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I44" s="92"/>
     </row>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="46" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>59</v>
@@ -4302,10 +4302,10 @@
         <v>26</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E46" s="95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>27</v>
@@ -4320,18 +4320,18 @@
         <v>30</v>
       </c>
       <c r="J46" s="87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K46" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L46" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>45</v>
@@ -4381,10 +4381,10 @@
         <v>27</v>
       </c>
       <c r="E48" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F48" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G48" s="23"/>
       <c r="H48" s="41"/>
@@ -4448,7 +4448,7 @@
         <v>92</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="66" t="s">
         <v>10</v>
@@ -4469,7 +4469,7 @@
         <v>88</v>
       </c>
       <c r="C52" s="103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D52" s="66" t="s">
         <v>10</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B55" s="123" t="s">
         <v>2</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="129" t="s">
         <v>10</v>
@@ -4568,34 +4568,34 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="88" t="s">
+      <c r="E57" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="F57" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="I57" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="G57" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="88" t="s">
+      <c r="J57" s="88" t="s">
         <v>109</v>
-      </c>
-      <c r="I57" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="J57" s="88" t="s">
-        <v>111</v>
       </c>
       <c r="K57" s="88" t="s">
         <v>38</v>
@@ -4607,19 +4607,19 @@
         <v>65</v>
       </c>
       <c r="N57" s="88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O57" s="88" t="s">
         <v>25</v>
       </c>
       <c r="P57" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q57" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="R57" s="88" t="s">
         <v>112</v>
-      </c>
-      <c r="Q57" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="R57" s="88" t="s">
-        <v>114</v>
       </c>
       <c r="S57" s="88" t="s">
         <v>69</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" s="83" t="s">
         <v>10</v>
@@ -4748,7 +4748,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="152" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="1"/>
@@ -4776,10 +4776,10 @@
         <v>24</v>
       </c>
       <c r="G65" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H65" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I65" s="92"/>
     </row>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="67" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>59</v>
@@ -4821,10 +4821,10 @@
         <v>26</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E67" s="95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>27</v>
@@ -4839,18 +4839,18 @@
         <v>30</v>
       </c>
       <c r="J67" s="87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K67" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L67" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>45</v>
@@ -4865,13 +4865,13 @@
         <v>10</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I68" s="103" t="s">
         <v>10</v>
@@ -4900,10 +4900,10 @@
         <v>27</v>
       </c>
       <c r="E69" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F69" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="41"/>
@@ -4967,7 +4967,7 @@
         <v>92</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E72" s="66" t="s">
         <v>10</v>
@@ -4988,7 +4988,7 @@
         <v>88</v>
       </c>
       <c r="C73" s="103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D73" s="66" t="s">
         <v>10</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B76" s="123" t="s">
         <v>2</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="77" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" s="129" t="s">
         <v>10</v>
@@ -5087,34 +5087,34 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="88" t="s">
+      <c r="E78" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="88" t="s">
+      <c r="F78" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="H78" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E78" s="88" t="s">
+      <c r="I78" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="F78" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="G78" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="H78" s="88" t="s">
+      <c r="J78" s="88" t="s">
         <v>109</v>
-      </c>
-      <c r="I78" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="J78" s="88" t="s">
-        <v>111</v>
       </c>
       <c r="K78" s="88" t="s">
         <v>38</v>
@@ -5126,19 +5126,19 @@
         <v>65</v>
       </c>
       <c r="N78" s="88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O78" s="88" t="s">
         <v>25</v>
       </c>
       <c r="P78" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q78" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="R78" s="88" t="s">
         <v>112</v>
-      </c>
-      <c r="Q78" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="R78" s="88" t="s">
-        <v>114</v>
       </c>
       <c r="S78" s="88" t="s">
         <v>69</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="79" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B79" s="83" t="s">
         <v>10</v>
@@ -5286,7 +5286,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="33"/>
@@ -5319,7 +5319,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="71"/>
       <c r="I4" s="92"/>
@@ -5329,7 +5329,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I5" s="92"/>
     </row>
@@ -5338,7 +5338,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I6" s="92"/>
     </row>
@@ -5347,7 +5347,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I7" s="92"/>
     </row>
@@ -5356,43 +5356,43 @@
         <v>85</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="71"/>
       <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="71"/>
       <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="71"/>
       <c r="I11" s="92"/>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="83" t="s">
         <v>10</v>
@@ -5434,13 +5434,13 @@
         <v>15</v>
       </c>
       <c r="D15" s="120" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G15" s="94" t="s">
         <v>16</v>
@@ -5464,7 +5464,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="63">
         <v>1</v>
@@ -5476,19 +5476,19 @@
         <v>1</v>
       </c>
       <c r="H16" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I16" s="103" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K16" s="92"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>75</v>
@@ -5505,19 +5505,19 @@
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D18" s="149" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E18" s="149" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" s="149" t="s">
         <v>10</v>
@@ -5525,19 +5525,19 @@
     </row>
     <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="149" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E19" s="149" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F19" s="149" t="s">
         <v>10</v>
@@ -5545,19 +5545,19 @@
     </row>
     <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="149" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20" s="149" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F20" s="149" t="s">
         <v>10</v>
@@ -5601,10 +5601,10 @@
         <v>24</v>
       </c>
       <c r="G23" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H23" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I23" s="92"/>
     </row>
@@ -5613,13 +5613,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E24" s="103" t="s">
         <v>10</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>59</v>
@@ -5646,10 +5646,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E25" s="95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F25" s="94" t="s">
         <v>27</v>
@@ -5664,18 +5664,18 @@
         <v>30</v>
       </c>
       <c r="J25" s="87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K25" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L25" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="105" t="s">
         <v>10</v>
@@ -5725,10 +5725,10 @@
         <v>27</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F27" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="41"/>
@@ -5789,7 +5789,7 @@
         <v>88</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="66" t="s">
         <v>10</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B33" s="123" t="s">
         <v>2</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="129" t="s">
         <v>10</v>
@@ -5888,34 +5888,34 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="88" t="s">
+      <c r="E35" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="F35" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="I35" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="88" t="s">
+      <c r="J35" s="88" t="s">
         <v>109</v>
-      </c>
-      <c r="I35" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" s="88" t="s">
-        <v>111</v>
       </c>
       <c r="K35" s="88" t="s">
         <v>38</v>
@@ -5927,19 +5927,19 @@
         <v>65</v>
       </c>
       <c r="N35" s="88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O35" s="88" t="s">
         <v>25</v>
       </c>
       <c r="P35" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q35" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="R35" s="88" t="s">
         <v>112</v>
-      </c>
-      <c r="Q35" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="R35" s="88" t="s">
-        <v>114</v>
       </c>
       <c r="S35" s="88" t="s">
         <v>69</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" s="83" t="s">
         <v>10</v>
@@ -6103,10 +6103,10 @@
         <v>24</v>
       </c>
       <c r="G43" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H43" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I43" s="92"/>
     </row>
@@ -6127,7 +6127,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="103" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G44" s="63" t="s">
         <v>10</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="45" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>59</v>
@@ -6148,10 +6148,10 @@
         <v>26</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E45" s="95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>27</v>
@@ -6166,18 +6166,18 @@
         <v>30</v>
       </c>
       <c r="J45" s="87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K45" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L45" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>45</v>
@@ -6192,16 +6192,16 @@
         <v>10</v>
       </c>
       <c r="F46" s="103" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G46" s="103" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H46" s="103" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I46" s="103" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J46" s="84" t="s">
         <v>10</v>
@@ -6227,10 +6227,10 @@
         <v>27</v>
       </c>
       <c r="E47" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F47" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="41"/>
@@ -6291,7 +6291,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="66" t="s">
         <v>10</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" s="123" t="s">
         <v>2</v>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B54" s="129" t="s">
         <v>10</v>
@@ -6390,34 +6390,34 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="88" t="s">
+      <c r="E55" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="88" t="s">
+      <c r="F55" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="88" t="s">
+      <c r="I55" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="F55" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="H55" s="88" t="s">
+      <c r="J55" s="88" t="s">
         <v>109</v>
-      </c>
-      <c r="I55" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="J55" s="88" t="s">
-        <v>111</v>
       </c>
       <c r="K55" s="88" t="s">
         <v>38</v>
@@ -6429,19 +6429,19 @@
         <v>65</v>
       </c>
       <c r="N55" s="88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O55" s="88" t="s">
         <v>25</v>
       </c>
       <c r="P55" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q55" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="R55" s="88" t="s">
         <v>112</v>
-      </c>
-      <c r="Q55" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="R55" s="88" t="s">
-        <v>114</v>
       </c>
       <c r="S55" s="88" t="s">
         <v>69</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" s="83" t="s">
         <v>10</v>
@@ -6570,7 +6570,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="152" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="1"/>
@@ -6598,10 +6598,10 @@
         <v>24</v>
       </c>
       <c r="G63" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H63" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I63" s="92"/>
     </row>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="65" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A65" s="85" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>59</v>
@@ -6643,10 +6643,10 @@
         <v>26</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E65" s="95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>27</v>
@@ -6661,18 +6661,18 @@
         <v>30</v>
       </c>
       <c r="J65" s="87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K65" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L65" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>45</v>
@@ -6687,13 +6687,13 @@
         <v>10</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I66" s="103" t="s">
         <v>10</v>
@@ -6722,10 +6722,10 @@
         <v>27</v>
       </c>
       <c r="E67" s="87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F67" s="87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G67" s="23"/>
       <c r="H67" s="41"/>
@@ -6789,7 +6789,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" s="66" t="s">
         <v>10</v>
@@ -6810,7 +6810,7 @@
         <v>88</v>
       </c>
       <c r="C71" s="103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D71" s="66" t="s">
         <v>10</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" s="123" t="s">
         <v>2</v>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="75" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B75" s="129" t="s">
         <v>10</v>
@@ -6909,34 +6909,34 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="88" t="s">
+      <c r="E76" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="88" t="s">
+      <c r="F76" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="H76" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E76" s="88" t="s">
+      <c r="I76" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="F76" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="G76" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="H76" s="88" t="s">
+      <c r="J76" s="88" t="s">
         <v>109</v>
-      </c>
-      <c r="I76" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="J76" s="88" t="s">
-        <v>111</v>
       </c>
       <c r="K76" s="88" t="s">
         <v>38</v>
@@ -6948,19 +6948,19 @@
         <v>65</v>
       </c>
       <c r="N76" s="88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O76" s="88" t="s">
         <v>25</v>
       </c>
       <c r="P76" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q76" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="R76" s="88" t="s">
         <v>112</v>
-      </c>
-      <c r="Q76" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="R76" s="88" t="s">
-        <v>114</v>
       </c>
       <c r="S76" s="88" t="s">
         <v>69</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="77" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" s="83" t="s">
         <v>10</v>
